--- a/data/SelenijumProjekat.xlsx
+++ b/data/SelenijumProjekat.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="151">
   <si>
     <t>Test Case</t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>tc10</t>
+  </si>
+  <si>
+    <t>tc11</t>
+  </si>
+  <si>
+    <t>tc12</t>
   </si>
   <si>
     <t>Precondition</t>
@@ -291,21 +297,9 @@
     <t>Click on the "MYWISHLISTS" button.</t>
   </si>
   <si>
-    <t>Enter the name of product in the filed "Name".</t>
-  </si>
-  <si>
-    <t>Click on "Delete" button in the column of Printer Summer Dress</t>
-  </si>
-  <si>
     <t>Click on "OK" button in the pop-up window.</t>
   </si>
   <si>
-    <t>Click on "Delete" button in the column of PrinterChiffon Dress.</t>
-  </si>
-  <si>
-    <t>Click on "Delete" button in the column of Blouse.</t>
-  </si>
-  <si>
     <t>Enter the name of the list in the filed "Name".</t>
   </si>
   <si>
@@ -394,6 +388,9 @@
   </si>
   <si>
     <t>Verify that registered user can edit personal information</t>
+  </si>
+  <si>
+    <t>Verify that registered user can add wish list</t>
   </si>
   <si>
     <r>
@@ -426,12 +423,6 @@
     <t>TC 05 - Test data</t>
   </si>
   <si>
-    <t>The user can add  one list, multiple wish list and delete one list</t>
-  </si>
-  <si>
-    <t>Verify that registered user can add wish list, add multiple and delete one list</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">                                             </t>
     </r>
@@ -471,15 +462,9 @@
     <t>TC 06 Verify that registered user can edit personal information</t>
   </si>
   <si>
-    <t>TC 07 Verify that registered user can add wish list, add multiple and delete one list</t>
-  </si>
-  <si>
     <t>TC 08 - Test data</t>
   </si>
   <si>
-    <t>TC 08 Verify that registered user can update the address</t>
-  </si>
-  <si>
     <t>Rumenka</t>
   </si>
   <si>
@@ -489,9 +474,6 @@
     <t>TC 09 - Test data</t>
   </si>
   <si>
-    <t>TC 09 Verify that registered user can add a new address</t>
-  </si>
-  <si>
     <t>Kosovska 33</t>
   </si>
   <si>
@@ -513,9 +495,6 @@
     <t>Your new address has been added..</t>
   </si>
   <si>
-    <t>TC 10 Verify that registered user can delete a adress</t>
-  </si>
-  <si>
     <t>Verify that registered user can delete the address</t>
   </si>
   <si>
@@ -523,6 +502,54 @@
   </si>
   <si>
     <t>Message with text " Wrong email, please try  again"</t>
+  </si>
+  <si>
+    <t>Verify that registered user can add multiple wish lists</t>
+  </si>
+  <si>
+    <t>Verify that registered user can delete wish list</t>
+  </si>
+  <si>
+    <t>TC 07 Verify that registered user can add wish list</t>
+  </si>
+  <si>
+    <t>TC 08 Verify that registered user can add multiple wish list</t>
+  </si>
+  <si>
+    <t>TC 09 Verify that registered user can delete wish list</t>
+  </si>
+  <si>
+    <t>User can add  one list</t>
+  </si>
+  <si>
+    <t>User can add  multiple list</t>
+  </si>
+  <si>
+    <t>User can delete one list</t>
+  </si>
+  <si>
+    <t>Click on "Delete" button in the column of My list of shoes</t>
+  </si>
+  <si>
+    <t>View</t>
+  </si>
+  <si>
+    <t>Welcome to your account. Here you can manage all of your personal information and orders.</t>
+  </si>
+  <si>
+    <t>TC 10 Verify that registered user can update the address</t>
+  </si>
+  <si>
+    <t>TC 11 Verify that registered user can add a new address</t>
+  </si>
+  <si>
+    <t>TC 11 - Test data</t>
+  </si>
+  <si>
+    <t>TC 12 Verify that registered user can delete a adress</t>
+  </si>
+  <si>
+    <t>TC 12 - Test data</t>
   </si>
 </sst>
 </file>
@@ -776,7 +803,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1028,15 +1055,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1072,6 +1090,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1080,7 +1120,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1103,6 +1143,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1112,6 +1153,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1138,9 +1180,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1160,9 +1199,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1187,7 +1223,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1230,8 +1265,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1239,21 +1272,26 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="25" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1574,7 +1612,7 @@
   <dimension ref="A1:F997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1590,141 +1628,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.25" customHeight="1">
-      <c r="B1" s="97" t="s">
-        <v>111</v>
+      <c r="B1" s="96" t="s">
+        <v>110</v>
       </c>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="12.75" customHeight="1"/>
     <row r="3" spans="1:6" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="96" t="s">
-        <v>110</v>
-      </c>
-      <c r="D3" s="96" t="s">
+      <c r="B3" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="95" t="s">
         <v>109</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="25"/>
+      <c r="D3" s="95" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="25"/>
+      <c r="F3" s="26"/>
     </row>
     <row r="4" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A4" s="79"/>
-      <c r="B4" s="80" t="s">
-        <v>103</v>
-      </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="25"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="79" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="26"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="26"/>
     </row>
     <row r="5" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="75" t="s">
-        <v>25</v>
+      <c r="B5" s="74" t="s">
+        <v>27</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="25"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="26"/>
     </row>
     <row r="6" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="82" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="25"/>
+      <c r="F6" s="26"/>
+    </row>
+    <row r="7" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A7" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="83" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="25"/>
+      <c r="F7" s="26"/>
+    </row>
+    <row r="8" spans="1:6" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A8" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="76" t="s">
         <v>99</v>
-      </c>
-      <c r="C6" s="83" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="25"/>
-    </row>
-    <row r="7" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A7" s="74" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="75" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" s="84" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="25"/>
-    </row>
-    <row r="8" spans="1:6" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A8" s="76" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="77" t="s">
-        <v>101</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="25"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="26"/>
     </row>
     <row r="9" spans="1:6" ht="12.75" customHeight="1" thickBot="1">
-      <c r="C9" s="73"/>
-      <c r="F9" s="25"/>
+      <c r="C9" s="72"/>
+      <c r="F9" s="26"/>
     </row>
     <row r="10" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A10" s="81"/>
-      <c r="B10" s="80" t="s">
-        <v>104</v>
-      </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="25"/>
+      <c r="A10" s="80"/>
+      <c r="B10" s="79" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="25"/>
+      <c r="F10" s="26"/>
     </row>
     <row r="11" spans="1:6" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A11" s="82" t="s">
+      <c r="A11" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="77" t="s">
-        <v>102</v>
+      <c r="B11" s="76" t="s">
+        <v>100</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
     </row>
     <row r="12" spans="1:6" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A12" s="24"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
     </row>
     <row r="13" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A13" s="85"/>
-      <c r="B13" s="86" t="s">
-        <v>105</v>
+      <c r="A13" s="84"/>
+      <c r="B13" s="85" t="s">
+        <v>103</v>
       </c>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:6" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A14" s="87" t="s">
+      <c r="A14" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="88" t="s">
-        <v>106</v>
+      <c r="B14" s="87" t="s">
+        <v>104</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>2</v>
@@ -1732,72 +1770,85 @@
     </row>
     <row r="15" spans="1:6" ht="12.75" customHeight="1" thickBot="1"/>
     <row r="16" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A16" s="91"/>
-      <c r="B16" s="92" t="s">
-        <v>107</v>
+      <c r="A16" s="90"/>
+      <c r="B16" s="91" t="s">
+        <v>106</v>
       </c>
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A17" s="90" t="s">
+      <c r="A17" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="111" t="s">
-        <v>114</v>
+      <c r="B17" s="108" t="s">
+        <v>105</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A19" s="91"/>
-      <c r="B19" s="92" t="s">
-        <v>115</v>
-      </c>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A20" s="89" t="s">
-        <v>108</v>
-      </c>
-      <c r="B20" s="93" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20" s="14" t="s">
+    <row r="18" spans="1:4" ht="12.75" customHeight="1">
+      <c r="A18" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" s="107" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A21" s="90" t="s">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A19" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="94" t="s">
-        <v>94</v>
-      </c>
-      <c r="C21" s="13" t="s">
+      <c r="B19" s="107" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A22" s="82" t="s">
+    <row r="20" spans="1:4" ht="16.5" customHeight="1" thickBot="1"/>
+    <row r="21" spans="1:4" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A21" s="90"/>
+      <c r="B21" s="91" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" ht="12.75" customHeight="1">
+      <c r="A22" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="95" t="s">
-        <v>139</v>
+      <c r="B22" s="92" t="s">
+        <v>87</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="12.75" customHeight="1">
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" ht="12.75" customHeight="1">
-      <c r="B24" s="1"/>
+      <c r="A23" s="89" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="93" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="12.75" customHeight="1" thickBot="1">
+      <c r="A24" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="94" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="25" spans="1:4" ht="12.75" customHeight="1">
       <c r="B25" s="58"/>
@@ -2818,126 +2869,126 @@
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>31</v>
+        <v>16</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A4" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>28</v>
+      <c r="A4" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1">
       <c r="B5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1">
       <c r="B6" s="10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="12.75" customHeight="1">
-      <c r="C7" s="113" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="113" t="s">
+      <c r="C7" s="110" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="110" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="110" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="110" t="s">
+        <v>118</v>
+      </c>
+      <c r="G7" s="110" t="s">
         <v>119</v>
       </c>
-      <c r="E7" s="113" t="s">
-        <v>120</v>
-      </c>
-      <c r="F7" s="113" t="s">
-        <v>121</v>
-      </c>
-      <c r="G7" s="113" t="s">
-        <v>122</v>
-      </c>
-      <c r="H7" s="113"/>
-      <c r="I7" s="113"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="110"/>
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1">
-      <c r="C8" s="113" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="113" t="s">
+      <c r="C8" s="110" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="110" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="110" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="110" t="s">
         <v>99</v>
       </c>
-      <c r="E8" s="113" t="s">
+      <c r="G8" s="110" t="s">
         <v>100</v>
       </c>
-      <c r="F8" s="113" t="s">
-        <v>101</v>
-      </c>
-      <c r="G8" s="113" t="s">
-        <v>102</v>
-      </c>
-      <c r="H8" s="113"/>
-      <c r="I8" s="113"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="110"/>
     </row>
     <row r="9" spans="1:9" ht="12.75" customHeight="1">
       <c r="C9" s="10"/>
     </row>
     <row r="10" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="31" t="s">
+      <c r="D10" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="31" t="s">
-        <v>112</v>
+      <c r="E10" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="12.75" customHeight="1">
       <c r="A11" s="4">
         <v>1</v>
       </c>
-      <c r="B11" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>33</v>
+      <c r="B11" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="12.75" customHeight="1">
       <c r="A12" s="5">
         <v>2</v>
       </c>
-      <c r="B12" s="29" t="s">
-        <v>47</v>
+      <c r="B12" s="31" t="s">
+        <v>49</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -2949,29 +3000,29 @@
       <c r="A13" s="5">
         <v>3</v>
       </c>
-      <c r="B13" s="29" t="s">
-        <v>48</v>
+      <c r="B13" s="31" t="s">
+        <v>50</v>
       </c>
       <c r="C13" s="59" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D13" s="60" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E13" s="60" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F13" s="61"/>
       <c r="G13" s="60" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="12.75" customHeight="1">
       <c r="A14" s="5">
         <v>4</v>
       </c>
-      <c r="B14" s="29" t="s">
-        <v>49</v>
+      <c r="B14" s="31" t="s">
+        <v>51</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -2983,11 +3034,11 @@
       <c r="A15" s="6">
         <v>5</v>
       </c>
-      <c r="B15" s="29" t="s">
-        <v>50</v>
+      <c r="B15" s="31" t="s">
+        <v>52</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -2998,8 +3049,8 @@
       <c r="A16" s="7">
         <v>6</v>
       </c>
-      <c r="B16" s="29" t="s">
-        <v>47</v>
+      <c r="B16" s="31" t="s">
+        <v>49</v>
       </c>
       <c r="C16" s="54"/>
       <c r="D16" s="54"/>
@@ -3008,97 +3059,97 @@
       <c r="G16" s="54"/>
     </row>
     <row r="17" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A17" s="39">
+      <c r="A17" s="41">
         <v>7</v>
       </c>
-      <c r="B17" s="29" t="s">
-        <v>51</v>
+      <c r="B17" s="31" t="s">
+        <v>53</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F17" s="62"/>
       <c r="G17" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="12.75" customHeight="1">
       <c r="A18" s="7">
         <v>8</v>
       </c>
-      <c r="B18" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
+      <c r="B18" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
     </row>
     <row r="19" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A19" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
+      <c r="A19" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
     </row>
     <row r="20" spans="1:7" ht="12.75" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="12.75" customHeight="1" thickBot="1"/>
     <row r="22" spans="1:7" ht="12.75" customHeight="1" thickBot="1">
-      <c r="B22" s="98" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="42" t="s">
+      <c r="B22" s="97" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="98" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="99" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="100" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="101" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="12.75" customHeight="1">
+      <c r="C23" s="42" t="s">
         <v>60</v>
-      </c>
-      <c r="D22" s="99" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" s="100" t="s">
-        <v>62</v>
-      </c>
-      <c r="F22" s="101" t="s">
-        <v>59</v>
-      </c>
-      <c r="G22" s="102" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="12.75" customHeight="1">
-      <c r="C23" s="40" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="12.75" customHeight="1"/>
@@ -4100,7 +4151,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4112,150 +4163,150 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="C1" s="27" t="s">
-        <v>26</v>
+      <c r="C1" s="29" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1"/>
-      <c r="B2" s="30"/>
+      <c r="B2" s="32"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>69</v>
+      <c r="A3" s="107" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>28</v>
+      <c r="A4" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" s="10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="C8" s="113" t="s">
-        <v>123</v>
+      <c r="C8" s="110" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="C9" s="10"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>118</v>
+      <c r="A10" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4">
         <v>1</v>
       </c>
-      <c r="B11" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="33"/>
+      <c r="B11" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="35"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="5">
         <v>2</v>
       </c>
-      <c r="B12" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="44" t="s">
-        <v>36</v>
+      <c r="B12" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="5">
         <v>3</v>
       </c>
-      <c r="B13" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="46" t="s">
-        <v>36</v>
+      <c r="B13" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="47" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="5">
         <v>4</v>
       </c>
-      <c r="B14" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="44" t="s">
-        <v>36</v>
+      <c r="B14" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="6">
         <v>5</v>
       </c>
-      <c r="B15" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>57</v>
+      <c r="B15" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="7"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="36"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="38"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="39"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="35"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="37"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="7"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="36"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="38"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="37"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="39"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="45" t="s">
-        <v>68</v>
+        <v>18</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="13.5" thickBot="1"/>
     <row r="22" spans="1:3" ht="39" thickBot="1">
-      <c r="B22" s="109" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="47" t="s">
-        <v>70</v>
+      <c r="B22" s="106" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="48" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -4268,10 +4319,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4289,187 +4340,253 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>69</v>
+        <v>16</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>28</v>
+      <c r="A4" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" s="10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="C8" s="117" t="s">
-        <v>124</v>
+      <c r="C8" s="112" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="C9" s="10"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="103" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="104" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="105" t="s">
-        <v>117</v>
+      <c r="A10" s="102" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="103" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="104" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="48">
+      <c r="A11" s="49">
         <v>1</v>
       </c>
-      <c r="B11" s="114" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="49"/>
+      <c r="B11" s="111" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="50"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="50">
+      <c r="A12" s="51">
         <v>2</v>
       </c>
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="71" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="51" t="s">
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="51">
+        <v>3</v>
+      </c>
+      <c r="B13" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="47"/>
+    </row>
+    <row r="14" spans="1:3" ht="13.5" thickBot="1">
+      <c r="A14" s="122"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="113"/>
+    </row>
+    <row r="15" spans="1:3" ht="15">
+      <c r="A15" s="105" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" s="113"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="123"/>
+      <c r="B16" s="124" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="127" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" s="112" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" s="10"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="102" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="103" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="104" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="49">
+        <v>1</v>
+      </c>
+      <c r="B22" s="111" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="50"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="51">
+        <v>2</v>
+      </c>
+      <c r="B23" s="71" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="51">
+        <v>3</v>
+      </c>
+      <c r="B24" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="47"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="125">
+        <v>4</v>
+      </c>
+      <c r="B25" s="71" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="52" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="50">
+    <row r="26" spans="1:3">
+      <c r="A26" s="126">
+        <v>5</v>
+      </c>
+      <c r="B26" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="109"/>
+    </row>
+    <row r="28" spans="1:3" ht="15">
+      <c r="A28" s="105" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="58" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="B29" s="124" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="26"/>
+      <c r="C30" s="26"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="C32" s="112" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="C33" s="10"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="102" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="103" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="104" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="49">
+        <v>1</v>
+      </c>
+      <c r="B35" s="111" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="50"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="51">
+        <v>2</v>
+      </c>
+      <c r="B36" s="71" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" s="52"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="51">
         <v>3</v>
       </c>
-      <c r="B13" s="71" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="46"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="50">
-        <v>4</v>
-      </c>
-      <c r="B14" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="51" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="52">
-        <v>5</v>
-      </c>
-      <c r="B15" s="71" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="53" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="54">
-        <v>6</v>
-      </c>
-      <c r="B16" s="71" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="51" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="55">
-        <v>7</v>
-      </c>
-      <c r="B17" s="72" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" s="53"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="54">
-        <v>8</v>
-      </c>
-      <c r="B18" s="72" t="s">
+      <c r="B37" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="36"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="55">
-        <v>9</v>
-      </c>
-      <c r="B19" s="71" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="36"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="54">
-        <v>10</v>
-      </c>
-      <c r="B20" s="71" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" s="54"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="54">
-        <v>11</v>
-      </c>
-      <c r="B21" s="71" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="70"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="56">
-        <v>12</v>
-      </c>
-      <c r="B22" s="115" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="56"/>
-    </row>
-    <row r="23" spans="1:3" ht="13.5" thickBot="1">
-      <c r="A23" s="107"/>
-      <c r="B23" s="108"/>
-      <c r="C23" s="25"/>
-    </row>
-    <row r="24" spans="1:3" ht="15">
-      <c r="A24" s="106" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="58" t="s">
-        <v>113</v>
-      </c>
-      <c r="C24" s="45"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="B26" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="116"/>
+      <c r="C37" s="109"/>
+    </row>
+    <row r="39" spans="1:3" ht="15">
+      <c r="A39" s="105" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="58" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="B40" s="124" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="128" t="s">
+        <v>145</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4484,8 +4601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4499,249 +4616,249 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>69</v>
+        <v>16</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>28</v>
+      <c r="A4" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" s="10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="C8" s="78" t="s">
-        <v>126</v>
+      <c r="C8" s="77" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="C9" s="10"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>125</v>
+      <c r="A10" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="48">
+      <c r="A11" s="49">
         <v>1</v>
       </c>
-      <c r="B11" s="71" t="s">
-        <v>82</v>
+      <c r="B11" s="70" t="s">
+        <v>80</v>
       </c>
       <c r="C11" s="64"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="50">
+      <c r="A12" s="51">
         <v>2</v>
       </c>
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="63"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="51">
+        <v>3</v>
+      </c>
+      <c r="B13" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="68" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="51">
+        <v>4</v>
+      </c>
+      <c r="B14" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="63"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="50">
-        <v>3</v>
-      </c>
-      <c r="B13" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" s="68" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="50">
-        <v>4</v>
-      </c>
-      <c r="B14" s="71" t="s">
-        <v>92</v>
-      </c>
       <c r="C14" s="68" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="52">
+      <c r="A15" s="53">
         <v>5</v>
       </c>
-      <c r="B15" s="71" t="s">
-        <v>83</v>
+      <c r="B15" s="70" t="s">
+        <v>81</v>
       </c>
       <c r="C15" s="68" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="54">
         <v>6</v>
       </c>
-      <c r="B16" s="71" t="s">
-        <v>84</v>
+      <c r="B16" s="70" t="s">
+        <v>82</v>
       </c>
       <c r="C16" s="68" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="55">
         <v>7</v>
       </c>
-      <c r="B17" s="71" t="s">
-        <v>85</v>
+      <c r="B17" s="70" t="s">
+        <v>83</v>
       </c>
       <c r="C17" s="68" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15">
       <c r="A18" s="54">
         <v>8</v>
       </c>
-      <c r="B18" s="123" t="s">
-        <v>93</v>
+      <c r="B18" s="118" t="s">
+        <v>91</v>
       </c>
       <c r="C18" s="68" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="55">
         <v>9</v>
       </c>
-      <c r="B19" s="71" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" s="112"/>
+      <c r="B19" s="70" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="109"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="54"/>
-      <c r="B20" s="124"/>
+      <c r="B20" s="119"/>
       <c r="C20" s="66"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="54"/>
-      <c r="B21" s="71"/>
+      <c r="B21" s="70"/>
       <c r="C21" s="69"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="56"/>
-      <c r="B22" s="112"/>
+      <c r="B22" s="109"/>
       <c r="C22" s="67"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B23" s="57" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="C26" s="78" t="s">
-        <v>130</v>
+      <c r="C26" s="77" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="31" t="s">
+      <c r="A27" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="49">
+        <v>1</v>
+      </c>
+      <c r="B28" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="64"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="51">
+        <v>2</v>
+      </c>
+      <c r="B29" s="70" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="63"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="51">
+        <v>3</v>
+      </c>
+      <c r="B30" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="68" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="48">
-        <v>1</v>
-      </c>
-      <c r="B28" s="71" t="s">
-        <v>82</v>
-      </c>
-      <c r="C28" s="64"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="50">
-        <v>2</v>
-      </c>
-      <c r="B29" s="71" t="s">
-        <v>95</v>
-      </c>
-      <c r="C29" s="63"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="50">
-        <v>3</v>
-      </c>
-      <c r="B30" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="C30" s="68" t="s">
-        <v>135</v>
-      </c>
-    </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="50">
+      <c r="A31" s="51">
         <v>4</v>
       </c>
-      <c r="B31" s="71" t="s">
-        <v>92</v>
+      <c r="B31" s="70" t="s">
+        <v>90</v>
       </c>
       <c r="C31" s="68" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="52">
+      <c r="A32" s="53">
         <v>5</v>
       </c>
-      <c r="B32" s="71" t="s">
-        <v>83</v>
+      <c r="B32" s="70" t="s">
+        <v>81</v>
       </c>
       <c r="C32" s="68" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="54">
         <v>6</v>
       </c>
-      <c r="B33" s="71" t="s">
-        <v>84</v>
+      <c r="B33" s="70" t="s">
+        <v>82</v>
       </c>
       <c r="C33" s="68">
         <v>5700</v>
@@ -4751,119 +4868,119 @@
       <c r="A34" s="55">
         <v>7</v>
       </c>
-      <c r="B34" s="71" t="s">
-        <v>85</v>
+      <c r="B34" s="70" t="s">
+        <v>83</v>
       </c>
       <c r="C34" s="68" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15">
       <c r="A35" s="54">
         <v>8</v>
       </c>
-      <c r="B35" s="123" t="s">
-        <v>93</v>
+      <c r="B35" s="118" t="s">
+        <v>91</v>
       </c>
       <c r="C35" s="65" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="55">
         <v>9</v>
       </c>
-      <c r="B36" s="71" t="s">
-        <v>86</v>
-      </c>
-      <c r="C36" s="112"/>
+      <c r="B36" s="70" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="109"/>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="54">
         <v>10</v>
       </c>
-      <c r="B37" s="112"/>
+      <c r="B37" s="109"/>
       <c r="C37" s="66"/>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="54"/>
-      <c r="B38" s="124"/>
+      <c r="B38" s="119"/>
       <c r="C38" s="69"/>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="56"/>
-      <c r="B39" s="112"/>
+      <c r="B39" s="109"/>
       <c r="C39" s="67"/>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B40" s="57" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="C42" s="78" t="s">
-        <v>138</v>
+      <c r="C42" s="77" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B43" s="125" t="s">
-        <v>38</v>
-      </c>
-      <c r="C43" s="31" t="s">
-        <v>140</v>
+      <c r="A43" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="120" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="33" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="48">
+      <c r="A44" s="49">
         <v>1</v>
       </c>
-      <c r="B44" s="71" t="s">
-        <v>82</v>
-      </c>
-      <c r="C44" s="118"/>
+      <c r="B44" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" s="113"/>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="50">
+      <c r="A45" s="51">
         <v>2</v>
       </c>
-      <c r="B45" s="71" t="s">
-        <v>96</v>
-      </c>
-      <c r="C45" s="118"/>
+      <c r="B45" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" s="113"/>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="50">
+      <c r="A46" s="51">
         <v>3</v>
       </c>
-      <c r="B46" s="71" t="s">
-        <v>97</v>
-      </c>
-      <c r="C46" s="118"/>
+      <c r="B46" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="113"/>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="50"/>
-      <c r="B47" s="71"/>
-      <c r="C47" s="118"/>
+      <c r="A47" s="51"/>
+      <c r="B47" s="70"/>
+      <c r="C47" s="113"/>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="52"/>
-      <c r="B48" s="126"/>
-      <c r="C48" s="118"/>
+      <c r="A48" s="53"/>
+      <c r="B48" s="121"/>
+      <c r="C48" s="113"/>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B49" s="120" t="s">
-        <v>98</v>
-      </c>
-      <c r="C49" s="119"/>
+        <v>18</v>
+      </c>
+      <c r="B49" s="115" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" s="114"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4882,7 +4999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
@@ -4898,140 +5015,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A1" s="21"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="21"/>
+      <c r="A1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="22"/>
+    </row>
+    <row r="3" spans="1:4" ht="12.75" customHeight="1">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+    </row>
+    <row r="4" spans="1:4" ht="12.75" customHeight="1">
+      <c r="A4" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+    </row>
+    <row r="5" spans="1:4" ht="12.75" customHeight="1">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+    </row>
+    <row r="6" spans="1:4" ht="12.75" customHeight="1">
+      <c r="A6" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="23">
+        <v>1</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="23"/>
+    </row>
+    <row r="7" spans="1:4" ht="12.75" customHeight="1">
+      <c r="A7" s="22"/>
+      <c r="B7" s="23">
+        <v>2</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="22"/>
+    </row>
+    <row r="8" spans="1:4" ht="12.75" customHeight="1">
+      <c r="A8" s="22"/>
+      <c r="B8" s="23">
+        <v>3</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="23"/>
+    </row>
+    <row r="9" spans="1:4" ht="12.75" customHeight="1">
+      <c r="A9" s="22"/>
+      <c r="B9" s="23">
+        <v>4</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="23"/>
+    </row>
+    <row r="10" spans="1:4" ht="12.75" customHeight="1">
+      <c r="A10" s="22"/>
+      <c r="B10" s="23">
+        <v>5</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="23"/>
+    </row>
+    <row r="11" spans="1:4" ht="12.75" customHeight="1">
+      <c r="A11" s="22"/>
+      <c r="B11" s="23">
+        <v>6</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="22"/>
+    </row>
+    <row r="12" spans="1:4" ht="12.75" customHeight="1">
+      <c r="A12" s="22"/>
+      <c r="B12" s="23">
+        <v>7</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="22"/>
+    </row>
+    <row r="13" spans="1:4" ht="12.75" customHeight="1">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22">
+        <v>8</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="22"/>
+    </row>
+    <row r="14" spans="1:4" ht="12.75" customHeight="1">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+    </row>
+    <row r="15" spans="1:4" ht="12.75" customHeight="1">
+      <c r="A15" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="21"/>
-    </row>
-    <row r="3" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-    </row>
-    <row r="4" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A4" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-    </row>
-    <row r="5" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-    </row>
-    <row r="6" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A6" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="22">
-        <v>1</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="22"/>
-    </row>
-    <row r="7" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A7" s="21"/>
-      <c r="B7" s="22">
-        <v>2</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="21"/>
-    </row>
-    <row r="8" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22">
-        <v>3</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="22"/>
-    </row>
-    <row r="9" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A9" s="21"/>
-      <c r="B9" s="22">
-        <v>4</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="22"/>
-    </row>
-    <row r="10" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A10" s="21"/>
-      <c r="B10" s="22">
-        <v>5</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="22"/>
-    </row>
-    <row r="11" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22">
-        <v>6</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="21"/>
-    </row>
-    <row r="12" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A12" s="21"/>
-      <c r="B12" s="22">
-        <v>7</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="21"/>
-    </row>
-    <row r="13" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21">
-        <v>8</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="21"/>
-    </row>
-    <row r="14" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-    </row>
-    <row r="15" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A15" s="121" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="121" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
+      <c r="B15" s="116" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="117"/>
+      <c r="D15" s="117"/>
     </row>
     <row r="16" spans="1:4" ht="12.75" customHeight="1"/>
     <row r="17" ht="12.75" customHeight="1"/>
@@ -5053,14 +5170,14 @@
     <row r="33" spans="1:4" ht="12.75" customHeight="1"/>
     <row r="34" spans="1:4" ht="12.75" customHeight="1"/>
     <row r="35" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A35" s="121" t="s">
-        <v>21</v>
-      </c>
-      <c r="B35" s="121" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" s="122"/>
-      <c r="D35" s="122"/>
+      <c r="A35" s="116" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="116" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="117"/>
+      <c r="D35" s="117"/>
     </row>
     <row r="36" spans="1:4" ht="12.75" customHeight="1"/>
     <row r="37" spans="1:4" ht="12.75" customHeight="1"/>
@@ -6045,7 +6162,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -6061,155 +6178,155 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A1" s="21"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="A1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+    </row>
+    <row r="3" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+    </row>
+    <row r="4" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A4" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+    </row>
+    <row r="5" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+    </row>
+    <row r="6" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A6" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="23">
+        <v>1</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A7" s="22"/>
+      <c r="B7" s="23">
+        <v>2</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+    </row>
+    <row r="8" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A8" s="22"/>
+      <c r="B8" s="23">
+        <v>3</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="22"/>
+    </row>
+    <row r="9" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A9" s="22"/>
+      <c r="B9" s="23">
+        <v>4</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="22"/>
+    </row>
+    <row r="10" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A10" s="22"/>
+      <c r="B10" s="23">
+        <v>5</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="22"/>
+    </row>
+    <row r="11" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A11" s="22"/>
+      <c r="B11" s="23">
+        <v>6</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+    </row>
+    <row r="12" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A12" s="22"/>
+      <c r="B12" s="23">
+        <v>7</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+    </row>
+    <row r="13" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22">
+        <v>8</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+    </row>
+    <row r="15" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A15" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-    </row>
-    <row r="3" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-    </row>
-    <row r="4" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A4" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-    </row>
-    <row r="5" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-    </row>
-    <row r="6" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A6" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="22">
-        <v>1</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="21"/>
-    </row>
-    <row r="7" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A7" s="21"/>
-      <c r="B7" s="22">
-        <v>2</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-    </row>
-    <row r="8" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22">
-        <v>3</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="21"/>
-    </row>
-    <row r="9" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A9" s="21"/>
-      <c r="B9" s="22">
-        <v>4</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="21"/>
-    </row>
-    <row r="10" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A10" s="21"/>
-      <c r="B10" s="22">
-        <v>5</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="21"/>
-    </row>
-    <row r="11" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22">
-        <v>6</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-    </row>
-    <row r="12" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A12" s="21"/>
-      <c r="B12" s="22">
-        <v>7</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-    </row>
-    <row r="13" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21">
-        <v>8</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-    </row>
-    <row r="14" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-    </row>
-    <row r="15" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A15" s="121" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="121" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
-      <c r="E15" s="21"/>
+      <c r="B15" s="116" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="117"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="22"/>
     </row>
     <row r="16" spans="1:7" ht="81.75" customHeight="1">
       <c r="E16" s="15"/>
@@ -6235,14 +6352,14 @@
     <row r="33" spans="1:4" ht="12.75" customHeight="1"/>
     <row r="34" spans="1:4" ht="12.75" customHeight="1"/>
     <row r="35" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A35" s="121" t="s">
-        <v>21</v>
-      </c>
-      <c r="B35" s="121" t="s">
-        <v>141</v>
-      </c>
-      <c r="C35" s="122"/>
-      <c r="D35" s="21"/>
+      <c r="A35" s="116" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="116" t="s">
+        <v>134</v>
+      </c>
+      <c r="C35" s="117"/>
+      <c r="D35" s="22"/>
     </row>
     <row r="36" spans="1:4" ht="12.75" customHeight="1"/>
     <row r="37" spans="1:4" ht="12.75" customHeight="1"/>
